--- a/biology/Zoologie/Charaxes_saperanus/Charaxes_saperanus.xlsx
+++ b/biology/Zoologie/Charaxes_saperanus/Charaxes_saperanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases saperanus est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Charaxinae et du genre Charaxes.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Charaxes saperanus a été décrite par Edward Bagnall Poulton en 1926 sous le nom initial de Charaxes fulvescens saperanus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Charaxes saperanus a été décrite par Edward Bagnall Poulton en 1926 sous le nom initial de Charaxes fulvescens saperanus.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes saperanus est un grand papillon aux ailes antérieures à bord externe concave et ailes postérieures munies d'une queue. Le dessus des ailes est orange avec une ligne submarginale d'ocelles et beige dans leur partie basale. Le revers est beige marbré avec une ligne submarginale d'ocelles discrets aux ailes antérieures, beige centrés de gris argent aux ailes postérieures.
 </t>
@@ -575,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Allophylus[1].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Allophylus.
 </t>
         </is>
       </c>
@@ -605,13 +626,14 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est n'est présent qu'à Mayotte[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est n'est présent qu'à Mayotte.
 Sur les autres projets Wikimedia :
 Charaxes saperanus, sur Wikimedia CommonsCharaxes saperanus, sur Wikispecies
-Biotope
-Protection</t>
+</t>
         </is>
       </c>
     </row>
